--- a/lab02/Libro1.xlsx
+++ b/lab02/Libro1.xlsx
@@ -2,34 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reposInventario2025\lab02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\clonRepositorio\reposInventario2025\lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20DF1889-7E59-42EB-9148-96CA5775C394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D389DE-8BFC-4C16-B809-7177527F6E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="2445" windowWidth="21600" windowHeight="11295" xr2:uid="{2CBF6FFA-8719-440B-9FC5-C5276456B4AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2CBF6FFA-8719-440B-9FC5-C5276456B4AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,13 +39,13 @@
     <t>l001</t>
   </si>
   <si>
-    <t>PC DELL ALL IN ONE CORE I7</t>
-  </si>
-  <si>
     <t>l002</t>
   </si>
   <si>
     <t>l003</t>
+  </si>
+  <si>
+    <t>AMD25</t>
   </si>
 </sst>
 </file>
@@ -437,15 +426,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -464,29 +453,29 @@
         <v>5445644</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
       </c>
       <c r="B3">
         <v>5885644</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>5445622</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
